--- a/data/Analyse15.xlsx
+++ b/data/Analyse15.xlsx
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF3" activeCellId="0" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,11 +786,11 @@
       </c>
       <c r="I2" s="8" t="n">
         <f aca="false">K2-H2</f>
-        <v>3.36</v>
+        <v>4.36</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="8" t="n">
-        <v>14.9</v>
+        <v>15.9</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">N2-K2</f>
@@ -798,19 +798,19 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8" t="n">
-        <v>19.64</v>
+        <v>20.64</v>
       </c>
       <c r="O2" s="8" t="n">
         <f aca="false">Q2-N2</f>
-        <v>6.77</v>
+        <v>4.77</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="8" t="n">
-        <v>26.41</v>
+        <v>25.41</v>
       </c>
       <c r="R2" s="8" t="n">
         <f aca="false">Q2+S2*14/35</f>
-        <v>28.522</v>
+        <v>27.522</v>
       </c>
       <c r="S2" s="8" t="n">
         <f aca="false">U2-Q2</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="8" t="n">
-        <v>31.69</v>
+        <v>30.69</v>
       </c>
       <c r="V2" s="8" t="n">
         <f aca="false">X2-U2</f>
@@ -826,7 +826,7 @@
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="8" t="n">
-        <v>36.96</v>
+        <v>35.96</v>
       </c>
       <c r="Y2" s="8" t="n">
         <f aca="false">AA2-X2</f>
@@ -834,7 +834,7 @@
       </c>
       <c r="Z2" s="7"/>
       <c r="AA2" s="8" t="n">
-        <v>42.36</v>
+        <v>41.36</v>
       </c>
       <c r="AB2" s="8" t="n">
         <f aca="false">AD2-AA2</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="AC2" s="7"/>
       <c r="AD2" s="8" t="n">
-        <v>47.91</v>
+        <v>46.91</v>
       </c>
       <c r="AE2" s="8" t="n">
         <f aca="false">AG2-AD2</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF2" s="7"/>
       <c r="AG2" s="8" t="n">
@@ -861,15 +861,15 @@
       </c>
       <c r="AJ2" s="8" t="n">
         <f aca="false">R2</f>
-        <v>28.522</v>
+        <v>27.522</v>
       </c>
       <c r="AK2" s="8" t="n">
         <f aca="false">AI2-R2</f>
-        <v>31.148</v>
+        <v>32.148</v>
       </c>
       <c r="AL2" s="8" t="n">
         <f aca="false">AK2-AJ2</f>
-        <v>2.626</v>
+        <v>4.62599999999999</v>
       </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
